--- a/static/templates/ListadoAdmitidosDiligenciado.xlsx
+++ b/static/templates/ListadoAdmitidosDiligenciado.xlsx
@@ -71,22 +71,22 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Listado No Admitidos</t>
+    <t>Listado de Admitidos</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Prueba Doctorado</t>
-  </si>
-  <si>
-    <t>Interinstitucional Educacion</t>
-  </si>
-  <si>
-    <t>2345689</t>
-  </si>
-  <si>
-    <t>AC201725380167</t>
+    <t>DIEGO ALEXANDER</t>
+  </si>
+  <si>
+    <t>CASTELLANOS JIMENEZ</t>
+  </si>
+  <si>
+    <t>80762016</t>
+  </si>
+  <si>
+    <t>2023MCHB2077</t>
   </si>
   <si>
     <t>295</t>
@@ -95,7 +95,7 @@
     <t>Nueva</t>
   </si>
   <si>
-    <t>NO ADMITIDO</t>
+    <t>ADMITIDO</t>
   </si>
 </sst>
 </file>
@@ -191,26 +191,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
@@ -606,153 +607,155 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="true" max="7" min="7" width="14.88671875"/>
-    <col customWidth="true" max="8" min="8" width="18.77734375"/>
-    <col customWidth="true" max="9" min="9" width="19.109375"/>
+    <col max="6" min="1" style="7" width="11.5546875"/>
+    <col customWidth="true" max="7" min="7" style="7" width="14.88671875"/>
+    <col customWidth="true" max="8" min="8" style="7" width="18.77734375"/>
+    <col customWidth="true" max="9" min="9" style="7" width="19.109375"/>
+    <col max="10" min="10" style="7" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" customHeight="true">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>100</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
